--- a/Definition/Design/HLD/LHWA_WBS Dictionary.xlsx
+++ b/Definition/Design/HLD/LHWA_WBS Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (3)\ITI\Technical\QA\Workshop\Encyclopedia\Definition\Design\HLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FD957B-305D-49EA-9F88-C36950237731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EBC351-D81B-4A31-82F2-CEA3020E3A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -133,12 +133,6 @@
     <t>Commuincation Matrix</t>
   </si>
   <si>
-    <t>2.1.6</t>
-  </si>
-  <si>
-    <t>2.1.6.1</t>
-  </si>
-  <si>
     <t>Risk Management Plan</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>(2.1.1 - 2.1.8)</t>
-  </si>
-  <si>
     <t>DATE OF COMPLETION</t>
   </si>
   <si>
@@ -202,9 +193,6 @@
     <t>Frameworks &amp; Tools</t>
   </si>
   <si>
-    <t>1.3.3</t>
-  </si>
-  <si>
     <t>1.1.3</t>
   </si>
   <si>
@@ -335,6 +323,9 @@
   </si>
   <si>
     <t>Acceptance testing</t>
+  </si>
+  <si>
+    <t>1.1.5 &amp; 1.2.1</t>
   </si>
 </sst>
 </file>
@@ -936,9 +927,9 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,10 +973,10 @@
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="22" t="s">
         <v>19</v>
@@ -993,7 +984,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="21">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1019,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="20" t="s">
         <v>14</v>
@@ -1048,11 +1039,9 @@
       <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>38</v>
-      </c>
+      <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="15">
         <v>1</v>
@@ -1061,7 +1050,7 @@
         <v>44838</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="14"/>
     </row>
@@ -1076,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F8" s="15">
         <v>1</v>
@@ -1085,7 +1074,7 @@
         <v>44869</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I8" s="13"/>
     </row>
@@ -1095,10 +1084,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F9" s="15">
         <v>1</v>
@@ -1107,7 +1096,7 @@
         <v>44838</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -1119,27 +1108,27 @@
         <v>18</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="15">
         <v>0</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>20</v>
@@ -1148,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F11" s="15">
         <v>1</v>
@@ -1157,13 +1146,13 @@
         <v>44899</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -1172,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -1181,13 +1170,13 @@
         <v>44869</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>22</v>
@@ -1196,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -1205,13 +1194,13 @@
         <v>44869</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>26</v>
@@ -1220,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -1229,22 +1218,20 @@
         <v>44869</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="14">
-        <v>3</v>
-      </c>
+      <c r="D15" s="14"/>
       <c r="E15" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" s="15">
         <v>1</v>
@@ -1253,22 +1240,20 @@
         <v>44869</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I15" s="13"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="14">
-        <v>4</v>
-      </c>
+      <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="15">
         <v>1</v>
@@ -1277,22 +1262,20 @@
         <v>44869</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>31</v>
-      </c>
+      <c r="D17" s="14"/>
       <c r="E17" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F17" s="15">
         <v>1</v>
@@ -1301,22 +1284,22 @@
         <v>44838</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -1325,22 +1308,20 @@
         <v>44838</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="14">
-        <v>7</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -1349,22 +1330,22 @@
         <v>44869</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2.1</v>
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20" s="4">
         <v>1</v>
@@ -1373,7 +1354,7 @@
         <v>44869</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I20" s="3"/>
     </row>
@@ -1382,13 +1363,13 @@
         <v>1.2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F21" s="4">
         <v>1</v>
@@ -1397,22 +1378,22 @@
         <v>44838</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3">
         <v>1.2</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1430,13 +1411,13 @@
         <v>1.3</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1445,7 +1426,7 @@
         <v>44899</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I23" s="3"/>
     </row>
@@ -1454,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -1471,22 +1452,22 @@
         <v>2.1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="14">
         <v>1.2</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F25" s="15">
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I25" s="14"/>
     </row>
@@ -1495,70 +1476,70 @@
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3">
         <v>1.2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F26" s="4">
         <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" s="3">
         <v>1.2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D28" s="3">
         <v>1.2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I28" s="3"/>
     </row>
@@ -1567,94 +1548,94 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D29" s="14">
         <v>1.2</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F29" s="15">
         <v>1</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D30" s="3">
         <v>1.2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D31" s="3">
         <v>1.2</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="H31" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D32" s="3">
         <v>1.2</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="I32" s="3"/>
     </row>
@@ -1663,46 +1644,46 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D33" s="14">
         <v>1.2</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F33" s="15">
         <v>1</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I33" s="14"/>
     </row>
     <row r="34" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D34" s="3">
         <v>1.2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I34" s="3"/>
     </row>
@@ -1711,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -1728,13 +1709,13 @@
         <v>3.1</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D36" s="14">
         <v>2.1</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F36" s="15">
         <v>0</v>
@@ -1748,7 +1729,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="23"/>
       <c r="E37" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
@@ -1762,13 +1743,13 @@
         <v>3.2</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
@@ -1782,7 +1763,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F39" s="4">
         <v>0</v>
@@ -1796,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -1813,11 +1794,11 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41" s="15">
         <v>0</v>
@@ -1831,11 +1812,11 @@
         <v>4.2</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F42" s="15">
         <v>0</v>
@@ -1849,11 +1830,11 @@
         <v>4.3</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F43" s="15">
         <v>0</v>
@@ -1867,11 +1848,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F44" s="15">
         <v>1</v>

--- a/Definition/Design/HLD/LHWA_WBS Dictionary.xlsx
+++ b/Definition/Design/HLD/LHWA_WBS Dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder (3)\ITI\Technical\QA\Workshop\Encyclopedia\Definition\Design\HLD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA workshop\Encyclopedia\Definition\Design\HLD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EBC351-D81B-4A31-82F2-CEA3020E3A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2AD3D7-4B78-4075-B0A5-7EE30DD03692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="Type">'[1]Maintenance Work Order'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="124">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -326,6 +326,93 @@
   </si>
   <si>
     <t>1.1.5 &amp; 1.2.1</t>
+  </si>
+  <si>
+    <t>Create Database</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>Fatma</t>
+  </si>
+  <si>
+    <t>3.1.2</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>3.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publish Article </t>
+  </si>
+  <si>
+    <t>3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upload video/record </t>
+  </si>
+  <si>
+    <t>3.1.6</t>
+  </si>
+  <si>
+    <t>3.1.7</t>
+  </si>
+  <si>
+    <t>3.1.8</t>
+  </si>
+  <si>
+    <t>3.1.9</t>
+  </si>
+  <si>
+    <t>3.1.10</t>
+  </si>
+  <si>
+    <t>Choose category</t>
+  </si>
+  <si>
+    <t>Follow category</t>
+  </si>
+  <si>
+    <t>Notification</t>
+  </si>
+  <si>
+    <t>Delete user content</t>
+  </si>
+  <si>
+    <t>Delete user account</t>
+  </si>
+  <si>
+    <t>3.1.11</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Front-End Design</t>
+  </si>
+  <si>
+    <t>Mostafa</t>
+  </si>
+  <si>
+    <t>Login and Registration</t>
+  </si>
+  <si>
+    <t>Radwa,Mai</t>
+  </si>
+  <si>
+    <t>Rana,Fatma</t>
+  </si>
+  <si>
+    <t>3.1.12</t>
+  </si>
+  <si>
+    <t>View content</t>
   </si>
 </sst>
 </file>
@@ -924,12 +1011,12 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +1071,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="21">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1697,8 +1784,8 @@
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="10">
-        <f>AVERAGE(F36:F41)</f>
-        <v>4.1666666666666664E-2</v>
+        <f>AVERAGE(F36:F52)</f>
+        <v>0.73666666666666658</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -1714,152 +1801,348 @@
       <c r="D36" s="14">
         <v>2.1</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0</v>
-      </c>
+      <c r="E36" s="14"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="D37" s="23"/>
       <c r="E37" s="2" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="F37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
+      <c r="B38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="23"/>
+      <c r="E38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="23"/>
+      <c r="E39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="23"/>
+      <c r="E40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="23"/>
+      <c r="E41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="23"/>
+      <c r="E42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="23"/>
+      <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="23"/>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
         <v>3.2</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F50" s="4">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="8">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10">
+        <f>AVERAGE(F52:F56)</f>
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="2:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F52" s="15">
         <v>0</v>
       </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="14"/>
+    </row>
+    <row r="53" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F53" s="15">
         <v>0</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="8">
-        <v>4</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="10">
-        <f>AVERAGE(F41:F45)</f>
-        <v>0.25</v>
-      </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="2:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14" t="s">
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="14"/>
+    </row>
+    <row r="54" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F54" s="15">
         <v>0</v>
       </c>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14" t="s">
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="14"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="15">
-        <v>0</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="14">
-        <v>4.3</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="14">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" s="15">
-        <v>1</v>
-      </c>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="14"/>
+      <c r="F55" s="15">
+        <v>1</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
